--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/02_Inst_Variable_fixed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\libFormula SIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\07_LIB_EWS_IT\libFormula SIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="470">
   <si>
     <t>Variable</t>
   </si>
@@ -1446,6 +1446,15 @@
   </si>
   <si>
     <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>IND_59</t>
+  </si>
+  <si>
+    <t>59 - CR0_Q_DER</t>
   </si>
 </sst>
 </file>
@@ -2786,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="C97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124:D125"/>
+    <sheetView topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8281,6 +8290,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>467</v>
+      </c>
+      <c r="C126" t="s">
+        <v>467</v>
+      </c>
+      <c r="D126" t="s">
+        <v>467</v>
+      </c>
+      <c r="E126" t="s">
+        <v>468</v>
+      </c>
+      <c r="F126" t="s">
+        <v>469</v>
+      </c>
+      <c r="G126">
+        <v>101</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>103</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>0</v>
+      </c>
+      <c r="N126" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -8290,10 +8343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:B125"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10424,6 +10477,23 @@
         <v>462</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>467</v>
+      </c>
+      <c r="C126" t="s">
+        <v>467</v>
+      </c>
+      <c r="E126" t="s">
+        <v>467</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/02_Inst_Variable_fixed.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/02_Inst_Variable_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="656"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="473">
   <si>
     <t>Variable</t>
   </si>
@@ -740,6 +740,681 @@
     <t>205 - CRSYS_UT</t>
   </si>
   <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>CR0_TUA</t>
+  </si>
+  <si>
+    <t>55 - CR0_TUA</t>
+  </si>
+  <si>
+    <t>IND_56</t>
+  </si>
+  <si>
+    <t>IND_57</t>
+  </si>
+  <si>
+    <t>IND_58</t>
+  </si>
+  <si>
+    <t>CR0_TUR</t>
+  </si>
+  <si>
+    <t>CR0_TUS</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>56 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>57 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>58 - CR0_UCFBT</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>IND_206</t>
+  </si>
+  <si>
+    <t>CR0_TUC</t>
+  </si>
+  <si>
+    <t>206 - CR0_TUC</t>
+  </si>
+  <si>
+    <t>IND_207</t>
+  </si>
+  <si>
+    <t>IND_208</t>
+  </si>
+  <si>
+    <t>IND_209</t>
+  </si>
+  <si>
+    <t>CR0_ITUR</t>
+  </si>
+  <si>
+    <t>CR0_UA</t>
+  </si>
+  <si>
+    <t>CR0_US</t>
+  </si>
+  <si>
+    <t>207 - CR0_ITUR</t>
+  </si>
+  <si>
+    <t>208 - CR0_UA</t>
+  </si>
+  <si>
+    <t>209 - CR0_US</t>
+  </si>
+  <si>
+    <t>IND_210</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t>IND_219</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>IND_226</t>
+  </si>
+  <si>
+    <t>IND_227</t>
+  </si>
+  <si>
+    <t>IND_228</t>
+  </si>
+  <si>
+    <t>IND_229</t>
+  </si>
+  <si>
+    <t>IND_230</t>
+  </si>
+  <si>
+    <t>IND_231</t>
+  </si>
+  <si>
+    <t>IND_232</t>
+  </si>
+  <si>
+    <t>IND_233</t>
+  </si>
+  <si>
+    <t>IND_234</t>
+  </si>
+  <si>
+    <t>IND_235</t>
+  </si>
+  <si>
+    <t>IND_236</t>
+  </si>
+  <si>
+    <t>CR0_UR</t>
+  </si>
+  <si>
+    <t>CR0_UT</t>
+  </si>
+  <si>
+    <t>210 - CR0_UR</t>
+  </si>
+  <si>
+    <t>211 - CR0_UT</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>212 - XRA_IS_SC_AT_B90_L1M</t>
+  </si>
+  <si>
+    <t>213 - XRA_IS_GSC_L1M</t>
+  </si>
+  <si>
+    <t>214 - XRA_IS_GSC_AT_L1M</t>
+  </si>
+  <si>
+    <t>215 - XRA_IS_SC_AT_L1M</t>
+  </si>
+  <si>
+    <t>216 - XRA_IS_SC_L1M</t>
+  </si>
+  <si>
+    <t>217 - XRA_IS_GSC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>218 - XRA_IS_FLAG_AT_L3M</t>
+  </si>
+  <si>
+    <t>219 - XRA_IS_FLAG_L3M</t>
+  </si>
+  <si>
+    <t>220 - XRA_IS_SC_MM_AT_L3M</t>
+  </si>
+  <si>
+    <t>221 - XRA_IS_SC_MM_L3M</t>
+  </si>
+  <si>
+    <t>222 - XRA_IS_SC_M_AT_L3M</t>
+  </si>
+  <si>
+    <t>223 - XRA_IS_SC_M_L3M</t>
+  </si>
+  <si>
+    <t>224 - XRA_IS_SC_MAX_AT_L3M</t>
+  </si>
+  <si>
+    <t>225 - XRA_IS_SC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>226 - XRA_IS_RSC_M_AT_M_ACC_L3M</t>
+  </si>
+  <si>
+    <t>227 - XRA_IS_RSC_M_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>228 - XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>229 - XRA_IS_RSC_MM_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>230 - XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>231 - XRA_IS_RSC_MAX_MM_ACC_L3M</t>
+  </si>
+  <si>
+    <t>232 - XRA_IS_RSC_AT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>233 - XRA_IS_SC_BT_B90_L1M</t>
+  </si>
+  <si>
+    <t>234 - XRA_IS_RSC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>235 - XRA_IS_RSC_MM_FAT_L1M</t>
+  </si>
+  <si>
+    <t>236 - XRA_IS_RSC_MAX_FAT_L3M</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>60 - XRA_GSC_MAX_L3M</t>
+  </si>
+  <si>
+    <t>61 - XRA_RSC_ACC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>62 - NPAF_ANT_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>63 - NPAF_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>64 - ANTEXP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_65</t>
+  </si>
+  <si>
+    <t>65 - ANTEXP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>IND_66</t>
+  </si>
+  <si>
+    <t>66 - FINIMP_SCAD_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_67</t>
+  </si>
+  <si>
+    <t>67 - FINIMP_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>IND_68</t>
+  </si>
+  <si>
+    <t>68 - EFINS_INSOL_SCAD_TPREC</t>
+  </si>
+  <si>
+    <t>FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>IND_69</t>
+  </si>
+  <si>
+    <t>69 - FACT_ANT_ACC_30G_L1M</t>
+  </si>
+  <si>
+    <t>FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>70 - FACT_MAX_GG_L1M</t>
+  </si>
+  <si>
+    <t>IND_237</t>
+  </si>
+  <si>
+    <t>IND_238</t>
+  </si>
+  <si>
+    <t>IND_239</t>
+  </si>
+  <si>
+    <t>IND_240</t>
+  </si>
+  <si>
+    <t>IND_241</t>
+  </si>
+  <si>
+    <t>IND_242</t>
+  </si>
+  <si>
+    <t>IND_243</t>
+  </si>
+  <si>
+    <t>IND_244</t>
+  </si>
+  <si>
+    <t>IND_245</t>
+  </si>
+  <si>
+    <t>IND_246</t>
+  </si>
+  <si>
+    <t>IND_247</t>
+  </si>
+  <si>
+    <t>IND_248</t>
+  </si>
+  <si>
+    <t>IND_249</t>
+  </si>
+  <si>
+    <t>IND_250</t>
+  </si>
+  <si>
+    <t>IND_251</t>
+  </si>
+  <si>
+    <t>IND_252</t>
+  </si>
+  <si>
+    <t>IND_253</t>
+  </si>
+  <si>
+    <t>IND_254</t>
+  </si>
+  <si>
+    <t>IND_255</t>
+  </si>
+  <si>
+    <t>IND_256</t>
+  </si>
+  <si>
+    <t>IND_265</t>
+  </si>
+  <si>
+    <t>IND_266</t>
+  </si>
+  <si>
+    <t>IND_267</t>
+  </si>
+  <si>
+    <t>IND_271</t>
+  </si>
+  <si>
+    <t>IND_272</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>237 - NPAF_IS_FAC_L1M</t>
+  </si>
+  <si>
+    <t>238 - NPAF_IS_ANT_L1M</t>
+  </si>
+  <si>
+    <t>239 - NPAF_IS_MAX_FAC_L3M</t>
+  </si>
+  <si>
+    <t>240 - NPAF_IS_MAX_ANT_L3M</t>
+  </si>
+  <si>
+    <t>241 - NPAF_IS_M_FAC_L3M</t>
+  </si>
+  <si>
+    <t>242 - NPAF_IS_M_ANT_L3M</t>
+  </si>
+  <si>
+    <t>243 - NPAF_IS_MAX_DOC_L3M</t>
+  </si>
+  <si>
+    <t>244 - NPAF_IS_M_DOC_L3M</t>
+  </si>
+  <si>
+    <t>245 - NPAF_IS_FAC_FAT_L1M</t>
+  </si>
+  <si>
+    <t>246 - NPAF_IS_ANT_FAT_L1M</t>
+  </si>
+  <si>
+    <t>247 - NPAF_IS_MAX_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>248 - NPAF_IS_MAX_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>249 - NPAF_IS_M_FAC_FAT_L3M</t>
+  </si>
+  <si>
+    <t>250 - NPAF_IS_M_ANT_FAT_L3M</t>
+  </si>
+  <si>
+    <t>251 - NPAF_IS_FAC_DB_L1M</t>
+  </si>
+  <si>
+    <t>252 - NPAF_IS_ANT_DB_L1M</t>
+  </si>
+  <si>
+    <t>253 - NPAF_IS_MAX_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>254 - NPAF_IS_MAX_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>255 - NPAF_IS_M_FAC_DB_L3M</t>
+  </si>
+  <si>
+    <t>256 - NPAF_IS_M_ANT_DB_L3M</t>
+  </si>
+  <si>
+    <t>265 - NPAF_IS_ANT_ACC_L1M</t>
+  </si>
+  <si>
+    <t>266 - ANTEXP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>267 - ANTEXP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>271 - FINIMP_SCAD_ACC_1G_L1M</t>
+  </si>
+  <si>
+    <t>272 - FINIMP_SCAD_ACC_60G_L1M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>IND_263</t>
+  </si>
+  <si>
+    <t>IND_264</t>
+  </si>
+  <si>
+    <t>263 - NPAF_IS_MAX_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
+  </si>
+  <si>
+    <t>CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>IND_59</t>
+  </si>
+  <si>
+    <t>59 - CR0_Q_DER</t>
+  </si>
+  <si>
+    <t>Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>IND_79</t>
+  </si>
+  <si>
+    <t>79 - Notizie_Pregiudizievoli</t>
+  </si>
+  <si>
     <t>CRSYS_TUA_REAL</t>
   </si>
   <si>
@@ -755,6 +1430,21 @@
     <t>CRSYS_Q_DER_REAL</t>
   </si>
   <si>
+    <t>CR0_TUR_REAL</t>
+  </si>
+  <si>
+    <t>CR0_TUS_REAL</t>
+  </si>
+  <si>
+    <t>CR0_UCFBT_REAL</t>
+  </si>
+  <si>
+    <t>XRA_GSC_MAX_L3M_REAL</t>
+  </si>
+  <si>
+    <t>XRA_RSC_ACC_L1M_REAL</t>
+  </si>
+  <si>
     <t>CRSYS_TUC_REAL</t>
   </si>
   <si>
@@ -773,700 +1463,26 @@
     <t>CRSYS_UT_REAL</t>
   </si>
   <si>
-    <t>IND_55</t>
-  </si>
-  <si>
-    <t>CR0_TUA</t>
-  </si>
-  <si>
-    <t>55 - CR0_TUA</t>
-  </si>
-  <si>
-    <t>IND_56</t>
-  </si>
-  <si>
-    <t>IND_57</t>
-  </si>
-  <si>
-    <t>IND_58</t>
-  </si>
-  <si>
-    <t>CR0_TUR</t>
-  </si>
-  <si>
-    <t>CR0_TUS</t>
-  </si>
-  <si>
-    <t>CR0_UCFBT</t>
-  </si>
-  <si>
-    <t>56 - CR0_TUR</t>
-  </si>
-  <si>
-    <t>57 - CR0_TUS</t>
-  </si>
-  <si>
-    <t>58 - CR0_UCFBT</t>
-  </si>
-  <si>
-    <t>CR0_TUR_REAL</t>
-  </si>
-  <si>
-    <t>CR0_TUS_REAL</t>
-  </si>
-  <si>
-    <t>CR0_UCFBT_REAL</t>
-  </si>
-  <si>
-    <t>XRA_GSC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>IND_61</t>
-  </si>
-  <si>
-    <t>XRA_GSC_MAX_L3M_REAL</t>
-  </si>
-  <si>
-    <t>XRA_RSC_ACC_L1M_REAL</t>
-  </si>
-  <si>
-    <t>XRA_RSC_ACC_L1M</t>
-  </si>
-  <si>
-    <t>IND_206</t>
-  </si>
-  <si>
-    <t>CR0_TUC</t>
-  </si>
-  <si>
-    <t>206 - CR0_TUC</t>
-  </si>
-  <si>
     <t>CR0_TUC_REAL</t>
-  </si>
-  <si>
-    <t>IND_207</t>
-  </si>
-  <si>
-    <t>IND_208</t>
-  </si>
-  <si>
-    <t>IND_209</t>
-  </si>
-  <si>
-    <t>CR0_ITUR</t>
-  </si>
-  <si>
-    <t>CR0_UA</t>
-  </si>
-  <si>
-    <t>CR0_US</t>
-  </si>
-  <si>
-    <t>207 - CR0_ITUR</t>
-  </si>
-  <si>
-    <t>208 - CR0_UA</t>
-  </si>
-  <si>
-    <t>209 - CR0_US</t>
-  </si>
-  <si>
-    <t>IND_210</t>
-  </si>
-  <si>
-    <t>IND_211</t>
-  </si>
-  <si>
-    <t>IND_212</t>
-  </si>
-  <si>
-    <t>IND_213</t>
-  </si>
-  <si>
-    <t>IND_214</t>
-  </si>
-  <si>
-    <t>IND_215</t>
-  </si>
-  <si>
-    <t>IND_216</t>
-  </si>
-  <si>
-    <t>IND_217</t>
-  </si>
-  <si>
-    <t>IND_218</t>
-  </si>
-  <si>
-    <t>IND_219</t>
-  </si>
-  <si>
-    <t>IND_220</t>
-  </si>
-  <si>
-    <t>IND_221</t>
-  </si>
-  <si>
-    <t>IND_222</t>
-  </si>
-  <si>
-    <t>IND_223</t>
-  </si>
-  <si>
-    <t>IND_224</t>
-  </si>
-  <si>
-    <t>IND_225</t>
-  </si>
-  <si>
-    <t>IND_226</t>
-  </si>
-  <si>
-    <t>IND_227</t>
-  </si>
-  <si>
-    <t>IND_228</t>
-  </si>
-  <si>
-    <t>IND_229</t>
-  </si>
-  <si>
-    <t>IND_230</t>
-  </si>
-  <si>
-    <t>IND_231</t>
-  </si>
-  <si>
-    <t>IND_232</t>
-  </si>
-  <si>
-    <t>IND_233</t>
-  </si>
-  <si>
-    <t>IND_234</t>
-  </si>
-  <si>
-    <t>IND_235</t>
-  </si>
-  <si>
-    <t>IND_236</t>
-  </si>
-  <si>
-    <t>CR0_UR</t>
-  </si>
-  <si>
-    <t>CR0_UT</t>
-  </si>
-  <si>
-    <t>210 - CR0_UR</t>
-  </si>
-  <si>
-    <t>211 - CR0_UT</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_AT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_GSC_AT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_FLAG_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MM_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_M_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_AT_M_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_M_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_AT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_SC_BT_B90_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MM_FAT_L1M</t>
-  </si>
-  <si>
-    <t>XRA_IS_RSC_MAX_FAT_L3M</t>
-  </si>
-  <si>
-    <t>212 - XRA_IS_SC_AT_B90_L1M</t>
-  </si>
-  <si>
-    <t>213 - XRA_IS_GSC_L1M</t>
-  </si>
-  <si>
-    <t>214 - XRA_IS_GSC_AT_L1M</t>
-  </si>
-  <si>
-    <t>215 - XRA_IS_SC_AT_L1M</t>
-  </si>
-  <si>
-    <t>216 - XRA_IS_SC_L1M</t>
-  </si>
-  <si>
-    <t>217 - XRA_IS_GSC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>218 - XRA_IS_FLAG_AT_L3M</t>
-  </si>
-  <si>
-    <t>219 - XRA_IS_FLAG_L3M</t>
-  </si>
-  <si>
-    <t>220 - XRA_IS_SC_MM_AT_L3M</t>
-  </si>
-  <si>
-    <t>221 - XRA_IS_SC_MM_L3M</t>
-  </si>
-  <si>
-    <t>222 - XRA_IS_SC_M_AT_L3M</t>
-  </si>
-  <si>
-    <t>223 - XRA_IS_SC_M_L3M</t>
-  </si>
-  <si>
-    <t>224 - XRA_IS_SC_MAX_AT_L3M</t>
-  </si>
-  <si>
-    <t>225 - XRA_IS_SC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>226 - XRA_IS_RSC_M_AT_M_ACC_L3M</t>
-  </si>
-  <si>
-    <t>227 - XRA_IS_RSC_M_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>228 - XRA_IS_RSC_MM_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>229 - XRA_IS_RSC_MM_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>230 - XRA_IS_RSC_MAX_AT_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>231 - XRA_IS_RSC_MAX_MM_ACC_L3M</t>
-  </si>
-  <si>
-    <t>232 - XRA_IS_RSC_AT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>233 - XRA_IS_SC_BT_B90_L1M</t>
-  </si>
-  <si>
-    <t>234 - XRA_IS_RSC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>235 - XRA_IS_RSC_MM_FAT_L1M</t>
-  </si>
-  <si>
-    <t>236 - XRA_IS_RSC_MAX_FAT_L3M</t>
-  </si>
-  <si>
-    <t>IND_60</t>
-  </si>
-  <si>
-    <t>60 - XRA_GSC_MAX_L3M</t>
-  </si>
-  <si>
-    <t>61 - XRA_RSC_ACC_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_ANT_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>IND_62</t>
-  </si>
-  <si>
-    <t>62 - NPAF_ANT_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_63</t>
-  </si>
-  <si>
-    <t>63 - NPAF_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>IND_64</t>
-  </si>
-  <si>
-    <t>64 - ANTEXP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_65</t>
-  </si>
-  <si>
-    <t>65 - ANTEXP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>IND_66</t>
-  </si>
-  <si>
-    <t>66 - FINIMP_SCAD_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_67</t>
-  </si>
-  <si>
-    <t>67 - FINIMP_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>EFINS_INSOL_SCAD_TPREC</t>
-  </si>
-  <si>
-    <t>IND_68</t>
-  </si>
-  <si>
-    <t>68 - EFINS_INSOL_SCAD_TPREC</t>
-  </si>
-  <si>
-    <t>FACT_ANT_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>IND_69</t>
-  </si>
-  <si>
-    <t>69 - FACT_ANT_ACC_30G_L1M</t>
-  </si>
-  <si>
-    <t>FACT_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_70</t>
-  </si>
-  <si>
-    <t>70 - FACT_MAX_GG_L1M</t>
-  </si>
-  <si>
-    <t>IND_237</t>
-  </si>
-  <si>
-    <t>IND_238</t>
-  </si>
-  <si>
-    <t>IND_239</t>
-  </si>
-  <si>
-    <t>IND_240</t>
-  </si>
-  <si>
-    <t>IND_241</t>
-  </si>
-  <si>
-    <t>IND_242</t>
-  </si>
-  <si>
-    <t>IND_243</t>
-  </si>
-  <si>
-    <t>IND_244</t>
-  </si>
-  <si>
-    <t>IND_245</t>
-  </si>
-  <si>
-    <t>IND_246</t>
-  </si>
-  <si>
-    <t>IND_247</t>
-  </si>
-  <si>
-    <t>IND_248</t>
-  </si>
-  <si>
-    <t>IND_249</t>
-  </si>
-  <si>
-    <t>IND_250</t>
-  </si>
-  <si>
-    <t>IND_251</t>
-  </si>
-  <si>
-    <t>IND_252</t>
-  </si>
-  <si>
-    <t>IND_253</t>
-  </si>
-  <si>
-    <t>IND_254</t>
-  </si>
-  <si>
-    <t>IND_255</t>
-  </si>
-  <si>
-    <t>IND_256</t>
-  </si>
-  <si>
-    <t>IND_265</t>
-  </si>
-  <si>
-    <t>IND_266</t>
-  </si>
-  <si>
-    <t>IND_267</t>
-  </si>
-  <si>
-    <t>IND_271</t>
-  </si>
-  <si>
-    <t>IND_272</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_FAT_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_FAC_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_DB_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_ANT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>ANTEXP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>FINIMP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>237 - NPAF_IS_FAC_L1M</t>
-  </si>
-  <si>
-    <t>238 - NPAF_IS_ANT_L1M</t>
-  </si>
-  <si>
-    <t>239 - NPAF_IS_MAX_FAC_L3M</t>
-  </si>
-  <si>
-    <t>240 - NPAF_IS_MAX_ANT_L3M</t>
-  </si>
-  <si>
-    <t>241 - NPAF_IS_M_FAC_L3M</t>
-  </si>
-  <si>
-    <t>242 - NPAF_IS_M_ANT_L3M</t>
-  </si>
-  <si>
-    <t>243 - NPAF_IS_MAX_DOC_L3M</t>
-  </si>
-  <si>
-    <t>244 - NPAF_IS_M_DOC_L3M</t>
-  </si>
-  <si>
-    <t>245 - NPAF_IS_FAC_FAT_L1M</t>
-  </si>
-  <si>
-    <t>246 - NPAF_IS_ANT_FAT_L1M</t>
-  </si>
-  <si>
-    <t>247 - NPAF_IS_MAX_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>248 - NPAF_IS_MAX_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>249 - NPAF_IS_M_FAC_FAT_L3M</t>
-  </si>
-  <si>
-    <t>250 - NPAF_IS_M_ANT_FAT_L3M</t>
-  </si>
-  <si>
-    <t>251 - NPAF_IS_FAC_DB_L1M</t>
-  </si>
-  <si>
-    <t>252 - NPAF_IS_ANT_DB_L1M</t>
-  </si>
-  <si>
-    <t>253 - NPAF_IS_MAX_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>254 - NPAF_IS_MAX_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>255 - NPAF_IS_M_FAC_DB_L3M</t>
-  </si>
-  <si>
-    <t>256 - NPAF_IS_M_ANT_DB_L3M</t>
-  </si>
-  <si>
-    <t>265 - NPAF_IS_ANT_ACC_L1M</t>
-  </si>
-  <si>
-    <t>266 - ANTEXP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>267 - ANTEXP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>271 - FINIMP_SCAD_ACC_1G_L1M</t>
-  </si>
-  <si>
-    <t>272 - FINIMP_SCAD_ACC_60G_L1M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_MAX_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>NPAF_IS_M_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>IND_263</t>
-  </si>
-  <si>
-    <t>IND_264</t>
-  </si>
-  <si>
-    <t>263 - NPAF_IS_MAX_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>264 - NPAF_IS_M_DOC_DB_L3M</t>
-  </si>
-  <si>
-    <t>CR0_Q_DER</t>
-  </si>
-  <si>
-    <t>IND_59</t>
-  </si>
-  <si>
-    <t>59 - CR0_Q_DER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1721,54 +1737,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2795,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,20 +4835,20 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>225</v>
+      <c r="B47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="G47" s="10">
         <v>58</v>
@@ -4862,20 +4879,20 @@
       <c r="A48" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>226</v>
+      <c r="B48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="G48" s="10">
         <v>59</v>
@@ -4906,20 +4923,20 @@
       <c r="A49" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>227</v>
+      <c r="B49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="G49" s="10">
         <v>60</v>
@@ -4950,20 +4967,20 @@
       <c r="A50" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>228</v>
+      <c r="B50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="G50" s="10">
         <v>61</v>
@@ -4991,38 +5008,38 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>229</v>
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E51" t="s">
+        <v>451</v>
+      </c>
+      <c r="F51" t="s">
+        <v>452</v>
       </c>
       <c r="G51" s="10">
         <v>62</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>103</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>12</v>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -5038,20 +5055,20 @@
       <c r="A52" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>230</v>
+      <c r="B52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>340</v>
       </c>
       <c r="G52" s="10">
         <v>63</v>
@@ -5082,20 +5099,20 @@
       <c r="A53" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F53" s="34" t="s">
+      <c r="B53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="40" t="s">
         <v>244</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>341</v>
       </c>
       <c r="G53" s="10">
         <v>64</v>
@@ -5123,38 +5140,38 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>251</v>
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" t="s">
+        <v>343</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
       </c>
       <c r="G54" s="10">
         <v>65</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="7" t="s">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
         <v>103</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>12</v>
+      <c r="K54" t="b">
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -5167,38 +5184,38 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>252</v>
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" t="s">
+        <v>347</v>
       </c>
       <c r="G55" s="10">
         <v>66</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="7" t="s">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
         <v>103</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>12</v>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -5211,38 +5228,38 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>253</v>
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" t="s">
+        <v>350</v>
       </c>
       <c r="G56" s="10">
         <v>67</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="7" t="s">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
         <v>103</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>12</v>
+      <c r="K56" t="b">
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -5255,38 +5272,38 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>357</v>
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" t="s">
+        <v>351</v>
+      </c>
+      <c r="D57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" t="s">
+        <v>353</v>
       </c>
       <c r="G57" s="10">
         <v>68</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="7" t="s">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
         <v>103</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>12</v>
+      <c r="K57" t="b">
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -5299,38 +5316,38 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>358</v>
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" t="s">
+        <v>356</v>
       </c>
       <c r="G58" s="10">
         <v>69</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="7" t="s">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
         <v>103</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>12</v>
+      <c r="K58" t="b">
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -5343,38 +5360,38 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>264</v>
+        <v>357</v>
+      </c>
+      <c r="E59" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" t="s">
+        <v>359</v>
       </c>
       <c r="G59" s="10">
         <v>70</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="7" t="s">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
         <v>103</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>12</v>
+      <c r="K59" t="b">
+        <v>0</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -5387,38 +5404,38 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>266</v>
+        <v>360</v>
+      </c>
+      <c r="E60" t="s">
+        <v>361</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="G60" s="10">
         <v>71</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
         <v>103</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>12</v>
+      <c r="K60" t="b">
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -5431,38 +5448,38 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>267</v>
+        <v>363</v>
+      </c>
+      <c r="E61" t="s">
+        <v>364</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="G61" s="10">
         <v>72</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="7" t="s">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
         <v>103</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>12</v>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -5475,38 +5492,38 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>268</v>
+        <v>366</v>
+      </c>
+      <c r="E62" t="s">
+        <v>367</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="G62" s="10">
         <v>73</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
         <v>103</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>12</v>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -5519,38 +5536,38 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>275</v>
+        <v>453</v>
+      </c>
+      <c r="E63" t="s">
+        <v>454</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
+        <v>455</v>
       </c>
       <c r="G63" s="10">
         <v>74</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>12</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -5566,20 +5583,20 @@
       <c r="A64" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-      <c r="D64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="F64" t="s">
-        <v>305</v>
+      <c r="B64" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="G64" s="10">
         <v>75</v>
@@ -5610,20 +5627,20 @@
       <c r="A65" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="F65" t="s">
-        <v>331</v>
+      <c r="B65" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="G65" s="10">
         <v>76</v>
@@ -5654,20 +5671,20 @@
       <c r="A66" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" t="s">
-        <v>310</v>
-      </c>
-      <c r="D66" t="s">
-        <v>310</v>
-      </c>
-      <c r="E66" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F66" t="s">
-        <v>332</v>
+      <c r="B66" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="G66" s="10">
         <v>77</v>
@@ -5698,20 +5715,20 @@
       <c r="A67" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" t="s">
-        <v>311</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="F67" t="s">
-        <v>333</v>
+      <c r="B67" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>228</v>
       </c>
       <c r="G67" s="10">
         <v>78</v>
@@ -5742,20 +5759,20 @@
       <c r="A68" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C68" t="s">
-        <v>306</v>
-      </c>
-      <c r="D68" t="s">
-        <v>306</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" t="s">
-        <v>334</v>
+      <c r="B68" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="G68" s="10">
         <v>79</v>
@@ -5786,20 +5803,20 @@
       <c r="A69" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" t="s">
-        <v>307</v>
-      </c>
-      <c r="D69" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="F69" t="s">
-        <v>335</v>
+      <c r="B69" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="G69" s="10">
         <v>80</v>
@@ -5831,19 +5848,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70" t="s">
-        <v>336</v>
+        <v>246</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="G70" s="10">
         <v>81</v>
@@ -5875,19 +5892,19 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F71" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="G71" s="10">
         <v>82</v>
@@ -5899,10 +5916,10 @@
         <v>12</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -5919,19 +5936,19 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="F72" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="G72" s="10">
         <v>83</v>
@@ -5943,10 +5960,10 @@
         <v>12</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -5963,19 +5980,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F73" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="G73" s="10">
         <v>84</v>
@@ -6007,19 +6024,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="F74" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G74" s="10">
         <v>85</v>
@@ -6051,19 +6068,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="F75" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G75" s="10">
         <v>86</v>
@@ -6095,19 +6112,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="F76" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="G76" s="10">
         <v>87</v>
@@ -6139,19 +6156,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="G77" s="10">
         <v>88</v>
@@ -6183,19 +6200,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="D78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="F78" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="G78" s="10">
         <v>89</v>
@@ -6227,19 +6244,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="G79" s="10">
         <v>90</v>
@@ -6271,19 +6288,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="G80" s="10">
         <v>91</v>
@@ -6315,19 +6332,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F81" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="G81" s="10">
         <v>92</v>
@@ -6359,19 +6376,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="D82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="F82" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="G82" s="10">
         <v>93</v>
@@ -6383,10 +6400,10 @@
         <v>12</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -6403,19 +6420,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="G83" s="10">
         <v>94</v>
@@ -6427,10 +6444,10 @@
         <v>12</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -6447,19 +6464,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G84" s="10">
         <v>95</v>
@@ -6491,19 +6508,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="G85" s="10">
         <v>96</v>
@@ -6535,19 +6552,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="D86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="G86" s="10">
         <v>97</v>
@@ -6579,19 +6596,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G87" s="10">
         <v>98</v>
@@ -6623,19 +6640,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="G88" s="10">
         <v>99</v>
@@ -6667,19 +6684,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="G89" s="10">
         <v>100</v>
@@ -6706,511 +6723,511 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
-      </c>
-      <c r="E90" t="s">
-        <v>360</v>
+        <v>303</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>361</v>
-      </c>
-      <c r="G90">
+        <v>328</v>
+      </c>
+      <c r="G90" s="10">
+        <v>101</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" t="s">
+        <v>329</v>
+      </c>
+      <c r="G91" s="10">
         <v>102</v>
       </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="H91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>362</v>
-      </c>
-      <c r="C91" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" t="s">
-        <v>362</v>
-      </c>
-      <c r="E91" t="s">
-        <v>363</v>
-      </c>
-      <c r="F91" t="s">
-        <v>364</v>
-      </c>
-      <c r="G91">
+      <c r="K91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" t="s">
+        <v>330</v>
+      </c>
+      <c r="G92" s="10">
         <v>103</v>
       </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="H92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>365</v>
-      </c>
-      <c r="C92" t="s">
-        <v>365</v>
-      </c>
-      <c r="D92" t="s">
-        <v>365</v>
-      </c>
-      <c r="E92" t="s">
-        <v>366</v>
-      </c>
-      <c r="F92" t="s">
-        <v>367</v>
-      </c>
-      <c r="G92">
+      <c r="K92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F93" t="s">
+        <v>331</v>
+      </c>
+      <c r="G93" s="10">
         <v>104</v>
       </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="H93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>368</v>
-      </c>
-      <c r="C93" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="K93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+      <c r="G94" s="10">
+        <v>105</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" t="s">
+        <v>308</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="10">
+        <v>106</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" s="10">
+        <v>107</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="F97" t="s">
+        <v>335</v>
+      </c>
+      <c r="G97" s="10">
+        <v>108</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" t="s">
+        <v>336</v>
+      </c>
+      <c r="G98" s="10">
+        <v>109</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="F99" t="s">
+        <v>337</v>
+      </c>
+      <c r="G99" s="10">
+        <v>110</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F100" t="s">
+        <v>338</v>
+      </c>
+      <c r="G100" s="10">
+        <v>111</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" t="s">
+        <v>394</v>
+      </c>
+      <c r="D101" t="s">
+        <v>394</v>
+      </c>
+      <c r="E101" t="s">
         <v>369</v>
       </c>
-      <c r="F93" t="s">
-        <v>370</v>
-      </c>
-      <c r="G93">
-        <v>105</v>
-      </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>103</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
-        <v>371</v>
-      </c>
-      <c r="C94" t="s">
-        <v>371</v>
-      </c>
-      <c r="D94" t="s">
-        <v>371</v>
-      </c>
-      <c r="E94" t="s">
-        <v>372</v>
-      </c>
-      <c r="F94" t="s">
-        <v>373</v>
-      </c>
-      <c r="G94">
-        <v>106</v>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>103</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
-        <v>374</v>
-      </c>
-      <c r="C95" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" t="s">
-        <v>375</v>
-      </c>
-      <c r="F95" t="s">
-        <v>376</v>
-      </c>
-      <c r="G95">
-        <v>107</v>
-      </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>103</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" t="s">
-        <v>377</v>
-      </c>
-      <c r="D96" t="s">
-        <v>377</v>
-      </c>
-      <c r="E96" t="s">
-        <v>378</v>
-      </c>
-      <c r="F96" t="s">
-        <v>379</v>
-      </c>
-      <c r="G96">
-        <v>108</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>103</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" t="b">
-        <v>0</v>
-      </c>
-      <c r="M96" t="b">
-        <v>0</v>
-      </c>
-      <c r="N96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
-        <v>380</v>
-      </c>
-      <c r="C97" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" t="s">
-        <v>380</v>
-      </c>
-      <c r="E97" t="s">
-        <v>381</v>
-      </c>
-      <c r="F97" t="s">
-        <v>382</v>
-      </c>
-      <c r="G97">
-        <v>109</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>103</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" t="b">
-        <v>0</v>
-      </c>
-      <c r="M97" t="b">
-        <v>0</v>
-      </c>
-      <c r="N97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" t="s">
-        <v>383</v>
-      </c>
-      <c r="C98" t="s">
-        <v>383</v>
-      </c>
-      <c r="D98" t="s">
-        <v>383</v>
-      </c>
-      <c r="E98" t="s">
-        <v>384</v>
-      </c>
-      <c r="F98" t="s">
-        <v>385</v>
-      </c>
-      <c r="G98">
-        <v>110</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>103</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" t="b">
-        <v>0</v>
-      </c>
-      <c r="N98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" t="s">
-        <v>411</v>
-      </c>
-      <c r="C99" t="s">
-        <v>411</v>
-      </c>
-      <c r="D99" t="s">
-        <v>411</v>
-      </c>
-      <c r="E99" t="s">
-        <v>386</v>
-      </c>
-      <c r="F99" t="s">
-        <v>436</v>
-      </c>
-      <c r="G99">
-        <v>111</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>103</v>
-      </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" t="b">
-        <v>0</v>
-      </c>
-      <c r="M99" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
-        <v>412</v>
-      </c>
-      <c r="C100" t="s">
-        <v>412</v>
-      </c>
-      <c r="D100" t="s">
-        <v>412</v>
-      </c>
-      <c r="E100" t="s">
-        <v>387</v>
-      </c>
-      <c r="F100" t="s">
-        <v>437</v>
-      </c>
-      <c r="G100">
+      <c r="F101" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="10">
         <v>112</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>103</v>
-      </c>
-      <c r="K100" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" t="b">
-        <v>0</v>
-      </c>
-      <c r="M100" t="b">
-        <v>0</v>
-      </c>
-      <c r="N100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
-        <v>413</v>
-      </c>
-      <c r="C101" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" t="s">
-        <v>413</v>
-      </c>
-      <c r="E101" t="s">
-        <v>388</v>
-      </c>
-      <c r="F101" t="s">
-        <v>438</v>
-      </c>
-      <c r="G101">
-        <v>113</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -7234,27 +7251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E102" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F102" t="s">
-        <v>439</v>
-      </c>
-      <c r="G102">
-        <v>114</v>
+        <v>420</v>
+      </c>
+      <c r="G102" s="10">
+        <v>113</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -7278,27 +7295,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E103" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="F103" t="s">
-        <v>440</v>
-      </c>
-      <c r="G103">
-        <v>115</v>
+        <v>421</v>
+      </c>
+      <c r="G103" s="10">
+        <v>114</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -7322,27 +7339,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E104" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F104" t="s">
-        <v>441</v>
-      </c>
-      <c r="G104">
-        <v>116</v>
+        <v>422</v>
+      </c>
+      <c r="G104" s="10">
+        <v>115</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -7366,27 +7383,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E105" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F105" t="s">
-        <v>442</v>
-      </c>
-      <c r="G105">
-        <v>117</v>
+        <v>423</v>
+      </c>
+      <c r="G105" s="10">
+        <v>116</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7410,27 +7427,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E106" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F106" t="s">
-        <v>443</v>
-      </c>
-      <c r="G106">
-        <v>118</v>
+        <v>424</v>
+      </c>
+      <c r="G106" s="10">
+        <v>117</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7454,27 +7471,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E107" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="F107" t="s">
-        <v>444</v>
-      </c>
-      <c r="G107">
-        <v>119</v>
+        <v>425</v>
+      </c>
+      <c r="G107" s="10">
+        <v>118</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7498,27 +7515,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E108" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="F108" t="s">
-        <v>445</v>
-      </c>
-      <c r="G108">
-        <v>120</v>
+        <v>426</v>
+      </c>
+      <c r="G108" s="10">
+        <v>119</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -7542,27 +7559,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E109" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="F109" t="s">
-        <v>446</v>
-      </c>
-      <c r="G109">
-        <v>121</v>
+        <v>427</v>
+      </c>
+      <c r="G109" s="10">
+        <v>120</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7586,27 +7603,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="F110" t="s">
-        <v>447</v>
-      </c>
-      <c r="G110">
-        <v>122</v>
+        <v>428</v>
+      </c>
+      <c r="G110" s="10">
+        <v>121</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7630,27 +7647,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E111" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
-      </c>
-      <c r="G111">
-        <v>123</v>
+        <v>429</v>
+      </c>
+      <c r="G111" s="10">
+        <v>122</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7674,27 +7691,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E112" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F112" t="s">
-        <v>449</v>
-      </c>
-      <c r="G112">
-        <v>124</v>
+        <v>430</v>
+      </c>
+      <c r="G112" s="10">
+        <v>123</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7718,27 +7735,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F113" t="s">
-        <v>450</v>
-      </c>
-      <c r="G113">
-        <v>125</v>
+        <v>431</v>
+      </c>
+      <c r="G113" s="10">
+        <v>124</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7762,27 +7779,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
-      </c>
-      <c r="G114">
-        <v>126</v>
+        <v>432</v>
+      </c>
+      <c r="G114" s="10">
+        <v>125</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7806,27 +7823,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E115" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="F115" t="s">
-        <v>452</v>
-      </c>
-      <c r="G115">
-        <v>127</v>
+        <v>433</v>
+      </c>
+      <c r="G115" s="10">
+        <v>126</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -7850,27 +7867,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="F116" t="s">
-        <v>453</v>
-      </c>
-      <c r="G116">
-        <v>128</v>
+        <v>434</v>
+      </c>
+      <c r="G116" s="10">
+        <v>127</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -7894,27 +7911,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E117" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F117" t="s">
-        <v>454</v>
-      </c>
-      <c r="G117">
-        <v>129</v>
+        <v>435</v>
+      </c>
+      <c r="G117" s="10">
+        <v>128</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -7938,27 +7955,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F118" t="s">
-        <v>455</v>
-      </c>
-      <c r="G118">
-        <v>130</v>
+        <v>436</v>
+      </c>
+      <c r="G118" s="10">
+        <v>129</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -7982,27 +7999,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E119" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="F119" t="s">
-        <v>456</v>
-      </c>
-      <c r="G119">
-        <v>131</v>
+        <v>437</v>
+      </c>
+      <c r="G119" s="10">
+        <v>130</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -8026,27 +8043,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F120" t="s">
-        <v>457</v>
-      </c>
-      <c r="G120">
-        <v>132</v>
+        <v>438</v>
+      </c>
+      <c r="G120" s="10">
+        <v>131</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -8070,27 +8087,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="D121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="E121" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="F121" t="s">
-        <v>458</v>
-      </c>
-      <c r="G121">
-        <v>133</v>
+        <v>448</v>
+      </c>
+      <c r="G121" s="10">
+        <v>132</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -8114,27 +8131,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E122" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="F122" t="s">
-        <v>459</v>
-      </c>
-      <c r="G122">
-        <v>134</v>
+        <v>449</v>
+      </c>
+      <c r="G122" s="10">
+        <v>133</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -8158,27 +8175,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="D123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E123" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="F123" t="s">
-        <v>460</v>
-      </c>
-      <c r="G123">
-        <v>135</v>
+        <v>439</v>
+      </c>
+      <c r="G123" s="10">
+        <v>134</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -8202,27 +8219,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="E124" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
       <c r="F124" t="s">
-        <v>465</v>
-      </c>
-      <c r="G124">
-        <v>136</v>
+        <v>440</v>
+      </c>
+      <c r="G124" s="10">
+        <v>135</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -8246,27 +8263,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="D125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="E125" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="F125" t="s">
-        <v>466</v>
-      </c>
-      <c r="G125">
-        <v>137</v>
+        <v>441</v>
+      </c>
+      <c r="G125" s="10">
+        <v>136</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -8290,27 +8307,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="D126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="E126" t="s">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="F126" t="s">
-        <v>469</v>
-      </c>
-      <c r="G126">
-        <v>101</v>
+        <v>442</v>
+      </c>
+      <c r="G126" s="10">
+        <v>137</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
@@ -8331,6 +8348,50 @@
         <v>0</v>
       </c>
       <c r="N126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" t="s">
+        <v>418</v>
+      </c>
+      <c r="D127" t="s">
+        <v>418</v>
+      </c>
+      <c r="E127" t="s">
+        <v>393</v>
+      </c>
+      <c r="F127" t="s">
+        <v>443</v>
+      </c>
+      <c r="G127" s="10">
+        <v>138</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>103</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8343,10 +8404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView topLeftCell="A119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9056,11 +9117,11 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>231</v>
+      <c r="B42" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>456</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>209</v>
@@ -9073,11 +9134,11 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>232</v>
+      <c r="B43" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>457</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>210</v>
@@ -9090,11 +9151,11 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>233</v>
+      <c r="B44" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>211</v>
@@ -9107,11 +9168,11 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>234</v>
+      <c r="B45" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>218</v>
@@ -9124,11 +9185,11 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>235</v>
+      <c r="B46" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>460</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>219</v>
@@ -9141,14 +9202,14 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>212</v>
+      <c r="B47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>22</v>
@@ -9158,14 +9219,14 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
@@ -9175,14 +9236,14 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>22</v>
@@ -9192,14 +9253,14 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>22</v>
@@ -9209,14 +9270,14 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>216</v>
+      <c r="B51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
+      <c r="E51" t="s">
+        <v>450</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>22</v>
@@ -9226,14 +9287,14 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>217</v>
+      <c r="B52" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>22</v>
@@ -9243,14 +9304,14 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>243</v>
+      <c r="B53" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>22</v>
@@ -9260,14 +9321,14 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>248</v>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" t="s">
+        <v>342</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>22</v>
@@ -9277,14 +9338,14 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>249</v>
+      <c r="B55" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" t="s">
+        <v>345</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>22</v>
@@ -9294,14 +9355,14 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>250</v>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" t="s">
+        <v>348</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>22</v>
@@ -9311,14 +9372,14 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>257</v>
+      <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" t="s">
+        <v>351</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>22</v>
@@ -9328,14 +9389,14 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>261</v>
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" t="s">
+        <v>354</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>22</v>
@@ -9346,13 +9407,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>22</v>
@@ -9363,13 +9424,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>22</v>
@@ -9380,13 +9441,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>22</v>
@@ -9397,13 +9458,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>22</v>
@@ -9414,30 +9475,30 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>453</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E64" t="s">
-        <v>303</v>
+      <c r="B64" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>22</v>
@@ -9447,14 +9508,14 @@
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" t="s">
-        <v>309</v>
-      </c>
-      <c r="E65" t="s">
-        <v>309</v>
+      <c r="B65" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>22</v>
@@ -9464,14 +9525,14 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" t="s">
-        <v>310</v>
-      </c>
-      <c r="E66" t="s">
-        <v>310</v>
+      <c r="B66" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>214</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>22</v>
@@ -9481,14 +9542,14 @@
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" t="s">
-        <v>311</v>
-      </c>
-      <c r="E67" t="s">
-        <v>311</v>
+      <c r="B67" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -9498,14 +9559,14 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C68" t="s">
-        <v>306</v>
-      </c>
-      <c r="E68" t="s">
-        <v>306</v>
+      <c r="B68" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -9515,14 +9576,14 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" t="s">
-        <v>307</v>
+      <c r="B69" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -9533,13 +9594,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>472</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>472</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -9550,16 +9611,16 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -9567,16 +9628,16 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -9584,13 +9645,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -9601,13 +9662,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -9618,13 +9679,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -9635,13 +9696,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -9652,13 +9713,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -9669,13 +9730,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -9686,13 +9747,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -9703,13 +9764,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -9720,13 +9781,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -9737,16 +9798,16 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -9754,16 +9815,16 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -9771,13 +9832,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>22</v>
@@ -9788,13 +9849,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>22</v>
@@ -9805,13 +9866,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="E86" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>22</v>
@@ -9822,13 +9883,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -9839,13 +9900,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -9856,13 +9917,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="E89" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -9873,13 +9934,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="E90" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -9890,13 +9951,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="E91" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>22</v>
@@ -9907,13 +9968,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="E92" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>22</v>
@@ -9924,13 +9985,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="E93" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
@@ -9941,13 +10002,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>22</v>
@@ -9958,13 +10019,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="E95" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>22</v>
@@ -9975,13 +10036,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>22</v>
@@ -9992,13 +10053,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>22</v>
@@ -10009,13 +10070,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="E98" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
@@ -10026,13 +10087,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="E99" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>22</v>
@@ -10043,13 +10104,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>22</v>
@@ -10060,13 +10121,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="E101" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>22</v>
@@ -10077,13 +10138,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E102" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>22</v>
@@ -10094,13 +10155,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E103" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
@@ -10111,13 +10172,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="E104" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>22</v>
@@ -10128,13 +10189,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E105" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>22</v>
@@ -10145,13 +10206,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>22</v>
@@ -10162,13 +10223,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E107" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
@@ -10179,13 +10240,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E108" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>22</v>
@@ -10196,13 +10257,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E109" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>22</v>
@@ -10213,13 +10274,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
@@ -10230,13 +10291,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E111" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>22</v>
@@ -10247,13 +10308,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E112" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
@@ -10264,13 +10325,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>22</v>
@@ -10281,13 +10342,13 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E114" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>22</v>
@@ -10298,13 +10359,13 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E115" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>22</v>
@@ -10315,13 +10376,13 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>22</v>
@@ -10332,13 +10393,13 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E117" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>22</v>
@@ -10349,13 +10410,13 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
@@ -10366,13 +10427,13 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E119" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>22</v>
@@ -10383,13 +10444,13 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>22</v>
@@ -10400,13 +10461,13 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="E121" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>22</v>
@@ -10417,13 +10478,13 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E122" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>22</v>
@@ -10434,13 +10495,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E123" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>22</v>
@@ -10451,13 +10512,13 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="E124" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>22</v>
@@ -10468,13 +10529,13 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="E125" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>22</v>
@@ -10485,15 +10546,32 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="E126" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" t="s">
+        <v>418</v>
+      </c>
+      <c r="E127" t="s">
+        <v>418</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>22</v>
       </c>
     </row>
